--- a/DoAnHTTT/src/main/webapp/File/1.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID_Student</t>
   </si>
@@ -51,40 +51,16 @@
     <t>DH18DTA</t>
   </si>
   <si>
-    <t>Đàm Văn Anh A</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh B</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh C</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh D</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh E</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh F</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh G</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh H</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh I</t>
-  </si>
-  <si>
-    <t>Đàm Văn Anh J</t>
+    <t>"18130009"</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,11 +415,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>18130005</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -459,214 +437,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>18130005</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>136</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>18130005</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>136</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>18130005</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>136</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>18130005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>136</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>18130005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>136</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>18130005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>136</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>18130005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>136</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>18130005</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>136</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>18130005</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>136</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DoAnHTTT/src/main/webapp/File/1.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,48 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ID_Student</t>
-  </si>
-  <si>
-    <t>Student_Name</t>
-  </si>
-  <si>
-    <t>ID_Faculty</t>
-  </si>
-  <si>
-    <t>Create_date</t>
-  </si>
-  <si>
-    <t>Class_code</t>
-  </si>
-  <si>
-    <t>Cert_number_required</t>
-  </si>
-  <si>
-    <t>Cert_number_accumulated</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>DT</t>
   </si>
   <si>
-    <t>20/10/2018</t>
-  </si>
-  <si>
-    <t>DH18DTA</t>
-  </si>
-  <si>
-    <t>"18130009"</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn I</t>
+    <t>Khóa</t>
+  </si>
+  <si>
+    <t>Tên Sinh Viên</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Anh</t>
+  </si>
+  <si>
+    <t>Lê Đình Phùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngô Minh Hiển</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,10 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,59 +374,57 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>136</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
   </sheetData>

--- a/DoAnHTTT/src/main/webapp/File/1.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FE1D2A0E-88AD-4EE6-B628-5A8F78F22D96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="7560"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21690" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="12">
   <si>
     <t>DT</t>
   </si>
@@ -27,25 +32,40 @@
     <t>Khóa</t>
   </si>
   <si>
-    <t>Tên Sinh Viên</t>
-  </si>
-  <si>
     <t>Khoa</t>
   </si>
   <si>
-    <t>Nguyễn Văn Anh</t>
+    <t>Họ</t>
   </si>
   <si>
-    <t>Lê Đình Phùng</t>
+    <t>Tên</t>
   </si>
   <si>
-    <t>Nguyễn Ngô Minh Hiển</t>
+    <t>Phùng</t>
+  </si>
+  <si>
+    <t>Hiển</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Lê Đình</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngô Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>TY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
@@ -78,9 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -362,72 +381,4058 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="2" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>18</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>18</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>18</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>18</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E237"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E238"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E249"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E253"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E254"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E255"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E262"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E264"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E303"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E307"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E311"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E312"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E313"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E314"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E315"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E316"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E317"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E318"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E319"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E320"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E321"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E322"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E323"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E324"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E325"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E326"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E327"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E331"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E334"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E335"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E341"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E342"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E343"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E344"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E345"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E346"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E348"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E349"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E350"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E351"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E352"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E353"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E354"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E355"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E356"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E357"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E358"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E359"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E360"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E361"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E362"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E363"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E364"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E365"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E366"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E367"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E368"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E369"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E370"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E371"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E372"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E373"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E374"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E375"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E376"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E380"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E381"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E382"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E383"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E384"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E385"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E386"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E387"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E388"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E389"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E390"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E391"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E392"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E393"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E394"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E395"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E396"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E397"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E398"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E399"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E400"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E401"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E402"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E404"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E405"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E406"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E407"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E408"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E409"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E410"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E411"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E412"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E413"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E414"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E415"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E416"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E417"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E418"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E419"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E420"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E421"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E422"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E423"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E424"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E425"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E426"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E427"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E428"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E429"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E430"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E431"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E432"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E433"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E434"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E435"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E436"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E437"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E438"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E439"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E440"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E441"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E442"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E443"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E444"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E445"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E446"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E447"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E448"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E449"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E450"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E451"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E452"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E453"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E454"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E455"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E456"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E457"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E458"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E459"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E460"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E461"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E462"/>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E463"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E464"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E465"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E466"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E467"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E468"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E469"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E470"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E472"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E473"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E474"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E475"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E476"/>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E477"/>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E478"/>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E479"/>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E480"/>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E481"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E482"/>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E483"/>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E484"/>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E485"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E486"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E487"/>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E488"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E489"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E490"/>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E491"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E492"/>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E493"/>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E494"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E495"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E496"/>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E497"/>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E498"/>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E499"/>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E500"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E501"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E502"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E503"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E504"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E505"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E506"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E507"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E508"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E509"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E510"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E511"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E512"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E513"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E514"/>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E515"/>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E516"/>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E517"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E518"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E519"/>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E520"/>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E521"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E522"/>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E523"/>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E524"/>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E525"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E526"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E527"/>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E528"/>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E529"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E530"/>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E531"/>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E532"/>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E533"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E534"/>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E535"/>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E536"/>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E537"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E538"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E539"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E540"/>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E541"/>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E542"/>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E543"/>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E544"/>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E545"/>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E546"/>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E547"/>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E548"/>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E549"/>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E550"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E551"/>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E552"/>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E553"/>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E554"/>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E555"/>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E556"/>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E557"/>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E558"/>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E559"/>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E560"/>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E561"/>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E562"/>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E563"/>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E564"/>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E565"/>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E566"/>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E567"/>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E568"/>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E569"/>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E570"/>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E571"/>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E572"/>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E573"/>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E574"/>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E575"/>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E576"/>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E577"/>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E578"/>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E579"/>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E580"/>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E581"/>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E582"/>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E583"/>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E584"/>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E585"/>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E586"/>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E587"/>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E588"/>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E589"/>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E590"/>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E591"/>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
+    <sortCondition ref="A2:A5"/>
+    <sortCondition ref="D2:D5"/>
+    <sortCondition ref="C2:C5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DoAnHTTT/src/main/webapp/File/1.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/1.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5572815E-88CA-4F9B-9B3E-DB204C758591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="7560"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21240" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>DT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="9">
   <si>
     <t>Khóa</t>
   </si>
@@ -41,11 +40,20 @@
   <si>
     <t>Nguyễn Ngô Minh Hiển</t>
   </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Phùng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
@@ -78,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -362,70 +369,4069 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="2" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>18</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>18</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>18</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>18</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>18</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>18</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>18</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>18</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>18</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>18</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>18</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>18</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>18</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>18</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>18</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>18</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>18</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>18</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>18</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>18</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>18</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>18</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>18</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>18</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>18</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>18</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>18</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>18</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>18</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>18</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DoAnHTTT/src/main/webapp/File/1.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/1.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5572815E-88CA-4F9B-9B3E-DB204C758591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21240" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21240" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="10">
   <si>
     <t>Khóa</t>
   </si>
@@ -49,11 +47,14 @@
   <si>
     <t>Phùng</t>
   </si>
+  <si>
+    <t>LA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
@@ -369,11 +370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148:D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +388,7 @@
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>18</v>
       </c>
@@ -415,7 +416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18</v>
       </c>
@@ -429,7 +430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -443,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>18</v>
       </c>
@@ -457,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
@@ -471,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -485,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -499,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -513,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -527,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>18</v>
       </c>
@@ -541,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -555,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -569,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -583,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -597,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -611,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -625,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -639,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -653,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -667,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -681,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -695,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -709,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -723,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -737,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -751,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -765,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -779,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>18</v>
       </c>
@@ -793,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18</v>
       </c>
@@ -807,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -821,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -835,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -849,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -863,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>18</v>
       </c>
@@ -877,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -891,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
@@ -905,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -919,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
@@ -933,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18</v>
       </c>
@@ -947,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>18</v>
       </c>
@@ -961,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18</v>
       </c>
@@ -975,7 +976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -989,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>18</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>18</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>18</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>18</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>18</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>18</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>18</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>18</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>18</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>18</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>18</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>18</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>18</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>18</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>18</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>18</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>18</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>18</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>18</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>18</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>18</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>18</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>18</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>18</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>18</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>18</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>18</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>18</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>18</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>18</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>18</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>18</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>18</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>18</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>18</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>18</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>18</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>18</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>18</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>18</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>18</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>18</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>18</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>18</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>18</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>18</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>18</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>18</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>18</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>18</v>
       </c>
@@ -2372,10 +2373,10 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>18</v>
       </c>
@@ -2386,10 +2387,10 @@
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>18</v>
       </c>
@@ -2400,10 +2401,10 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18</v>
       </c>
@@ -2414,10 +2415,10 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>18</v>
       </c>
@@ -2428,10 +2429,10 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>18</v>
       </c>
@@ -2442,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
@@ -2456,10 +2457,10 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>18</v>
       </c>
@@ -2470,10 +2471,10 @@
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>18</v>
       </c>
@@ -2484,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>18</v>
       </c>
@@ -2498,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>18</v>
       </c>
@@ -2512,10 +2513,10 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>18</v>
       </c>
@@ -2526,10 +2527,10 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>18</v>
       </c>
@@ -2540,10 +2541,10 @@
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>18</v>
       </c>
@@ -2554,10 +2555,10 @@
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -2568,10 +2569,10 @@
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>18</v>
       </c>
@@ -2582,10 +2583,10 @@
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>18</v>
       </c>
@@ -2596,10 +2597,10 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>18</v>
       </c>
@@ -2610,10 +2611,10 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18</v>
       </c>
@@ -2624,10 +2625,10 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>18</v>
       </c>
@@ -2638,10 +2639,10 @@
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18</v>
       </c>
@@ -2652,10 +2653,10 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -2666,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>18</v>
       </c>
@@ -2680,10 +2681,10 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>18</v>
       </c>
@@ -2694,10 +2695,10 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>18</v>
       </c>
@@ -2708,10 +2709,10 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>18</v>
       </c>
@@ -2722,10 +2723,10 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18</v>
       </c>
@@ -2736,10 +2737,10 @@
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>18</v>
       </c>
@@ -2750,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>18</v>
       </c>
@@ -2764,10 +2765,10 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>18</v>
       </c>
@@ -2778,10 +2779,10 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18</v>
       </c>
@@ -2792,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>18</v>
       </c>
@@ -2806,10 +2807,10 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>18</v>
       </c>
@@ -2820,10 +2821,10 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18</v>
       </c>
@@ -2834,10 +2835,10 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>18</v>
       </c>
@@ -2848,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>18</v>
       </c>
@@ -2862,10 +2863,10 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18</v>
       </c>
@@ -2876,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>18</v>
       </c>
@@ -2890,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>18</v>
       </c>
@@ -2904,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -2918,10 +2919,10 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>18</v>
       </c>
@@ -2932,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18</v>
       </c>
@@ -2946,10 +2947,10 @@
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -2960,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>18</v>
       </c>
@@ -2974,10 +2975,10 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -2988,10 +2989,10 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>18</v>
       </c>
@@ -3002,10 +3003,10 @@
         <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>18</v>
       </c>
@@ -3016,10 +3017,10 @@
         <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18</v>
       </c>
@@ -3030,10 +3031,10 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18</v>
       </c>
@@ -3044,10 +3045,10 @@
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>18</v>
       </c>
@@ -3058,10 +3059,10 @@
         <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>18</v>
       </c>
@@ -3072,10 +3073,10 @@
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>18</v>
       </c>
@@ -3086,10 +3087,10 @@
         <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>18</v>
       </c>
@@ -3100,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18</v>
       </c>
@@ -3114,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>18</v>
       </c>
@@ -3128,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>18</v>
       </c>
@@ -3142,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>18</v>
       </c>
@@ -3156,10 +3157,10 @@
         <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>18</v>
       </c>
@@ -3170,10 +3171,10 @@
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>18</v>
       </c>
@@ -3184,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>18</v>
       </c>
@@ -3198,10 +3199,10 @@
         <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>18</v>
       </c>
@@ -3212,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>18</v>
       </c>
@@ -3226,10 +3227,10 @@
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>18</v>
       </c>
@@ -3240,10 +3241,10 @@
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>18</v>
       </c>
@@ -3254,10 +3255,10 @@
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>18</v>
       </c>
@@ -3268,10 +3269,10 @@
         <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18</v>
       </c>
@@ -3282,10 +3283,10 @@
         <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>18</v>
       </c>
@@ -3296,10 +3297,10 @@
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>18</v>
       </c>
@@ -3310,10 +3311,10 @@
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>18</v>
       </c>
@@ -3324,10 +3325,10 @@
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>18</v>
       </c>
@@ -3338,10 +3339,10 @@
         <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>18</v>
       </c>
@@ -3352,10 +3353,10 @@
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>18</v>
       </c>
@@ -3366,10 +3367,10 @@
         <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>18</v>
       </c>
@@ -3380,10 +3381,10 @@
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>18</v>
       </c>
@@ -3394,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>18</v>
       </c>
@@ -3408,10 +3409,10 @@
         <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>18</v>
       </c>
@@ -3422,10 +3423,10 @@
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>18</v>
       </c>
@@ -3436,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>18</v>
       </c>
@@ -3450,10 +3451,10 @@
         <v>8</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>18</v>
       </c>
@@ -3464,10 +3465,10 @@
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>18</v>
       </c>
@@ -3478,10 +3479,10 @@
         <v>8</v>
       </c>
       <c r="D221" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>18</v>
       </c>
@@ -3492,10 +3493,10 @@
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>18</v>
       </c>
@@ -3506,10 +3507,10 @@
         <v>8</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>18</v>
       </c>
@@ -3520,10 +3521,10 @@
         <v>8</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>18</v>
       </c>
@@ -3534,10 +3535,10 @@
         <v>8</v>
       </c>
       <c r="D225" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>18</v>
       </c>
@@ -3548,10 +3549,10 @@
         <v>8</v>
       </c>
       <c r="D226" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>18</v>
       </c>
@@ -3562,10 +3563,10 @@
         <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>18</v>
       </c>
@@ -3576,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>18</v>
       </c>
@@ -3590,10 +3591,10 @@
         <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>18</v>
       </c>
@@ -3604,10 +3605,10 @@
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>18</v>
       </c>
@@ -3618,10 +3619,10 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>18</v>
       </c>
@@ -3632,10 +3633,10 @@
         <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>18</v>
       </c>
@@ -3646,10 +3647,10 @@
         <v>8</v>
       </c>
       <c r="D233" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>18</v>
       </c>
@@ -3660,10 +3661,10 @@
         <v>8</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>18</v>
       </c>
@@ -3674,10 +3675,10 @@
         <v>8</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>18</v>
       </c>
@@ -3688,10 +3689,10 @@
         <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>18</v>
       </c>
@@ -3702,10 +3703,10 @@
         <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>18</v>
       </c>
@@ -3716,10 +3717,10 @@
         <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>18</v>
       </c>
@@ -3730,10 +3731,10 @@
         <v>8</v>
       </c>
       <c r="D239" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>18</v>
       </c>
@@ -3744,10 +3745,10 @@
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>18</v>
       </c>
@@ -3758,10 +3759,10 @@
         <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>18</v>
       </c>
@@ -3772,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="D242" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>18</v>
       </c>
@@ -3786,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>18</v>
       </c>
@@ -3800,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>18</v>
       </c>
@@ -3814,10 +3815,10 @@
         <v>8</v>
       </c>
       <c r="D245" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>18</v>
       </c>
@@ -3828,10 +3829,10 @@
         <v>8</v>
       </c>
       <c r="D246" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>18</v>
       </c>
@@ -3842,10 +3843,10 @@
         <v>8</v>
       </c>
       <c r="D247" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>18</v>
       </c>
@@ -3856,10 +3857,10 @@
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18</v>
       </c>
@@ -3870,10 +3871,10 @@
         <v>8</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>18</v>
       </c>
@@ -3884,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>18</v>
       </c>
@@ -3898,10 +3899,10 @@
         <v>8</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>18</v>
       </c>
@@ -3912,10 +3913,10 @@
         <v>8</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>18</v>
       </c>
@@ -3926,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>18</v>
       </c>
@@ -3940,10 +3941,10 @@
         <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>18</v>
       </c>
@@ -3954,10 +3955,10 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>18</v>
       </c>
@@ -3968,10 +3969,10 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>18</v>
       </c>
@@ -3982,10 +3983,10 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>18</v>
       </c>
@@ -3996,10 +3997,10 @@
         <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>18</v>
       </c>
@@ -4010,10 +4011,10 @@
         <v>8</v>
       </c>
       <c r="D259" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>18</v>
       </c>
@@ -4024,10 +4025,10 @@
         <v>8</v>
       </c>
       <c r="D260" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>18</v>
       </c>
@@ -4038,10 +4039,10 @@
         <v>8</v>
       </c>
       <c r="D261" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>18</v>
       </c>
@@ -4052,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>18</v>
       </c>
@@ -4066,10 +4067,10 @@
         <v>8</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>18</v>
       </c>
@@ -4080,10 +4081,10 @@
         <v>8</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>18</v>
       </c>
@@ -4094,10 +4095,10 @@
         <v>8</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>18</v>
       </c>
@@ -4108,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>18</v>
       </c>
@@ -4122,10 +4123,10 @@
         <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>18</v>
       </c>
@@ -4136,10 +4137,10 @@
         <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>18</v>
       </c>
@@ -4150,10 +4151,10 @@
         <v>8</v>
       </c>
       <c r="D269" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>18</v>
       </c>
@@ -4164,10 +4165,10 @@
         <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>18</v>
       </c>
@@ -4178,10 +4179,10 @@
         <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>18</v>
       </c>
@@ -4192,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="D272" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>18</v>
       </c>
@@ -4206,10 +4207,10 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>18</v>
       </c>
@@ -4220,10 +4221,10 @@
         <v>8</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>18</v>
       </c>
@@ -4234,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>18</v>
       </c>
@@ -4248,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -4262,10 +4263,10 @@
         <v>8</v>
       </c>
       <c r="D277" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>18</v>
       </c>
@@ -4276,10 +4277,10 @@
         <v>8</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18</v>
       </c>
@@ -4290,10 +4291,10 @@
         <v>8</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18</v>
       </c>
@@ -4304,10 +4305,10 @@
         <v>8</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>18</v>
       </c>
@@ -4318,10 +4319,10 @@
         <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18</v>
       </c>
@@ -4332,10 +4333,10 @@
         <v>8</v>
       </c>
       <c r="D282" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18</v>
       </c>
@@ -4346,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>18</v>
       </c>
@@ -4360,10 +4361,10 @@
         <v>8</v>
       </c>
       <c r="D284" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18</v>
       </c>
@@ -4374,10 +4375,10 @@
         <v>8</v>
       </c>
       <c r="D285" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18</v>
       </c>
@@ -4388,10 +4389,10 @@
         <v>8</v>
       </c>
       <c r="D286" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>18</v>
       </c>
@@ -4402,10 +4403,10 @@
         <v>8</v>
       </c>
       <c r="D287" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>18</v>
       </c>
@@ -4416,10 +4417,10 @@
         <v>8</v>
       </c>
       <c r="D288" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>18</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>8</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
